--- a/RA/RA日结/RA日结错误记录_2015-12-02.xlsx
+++ b/RA/RA日结/RA日结错误记录_2015-12-02.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,13 +125,20 @@
   <si>
     <t>卡住，RADM数据库无法登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORA-08103: object no longer exists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_CL_LC_DY_A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,13 +189,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -249,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,10 +289,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,7 +323,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,22 +498,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="92.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -518,195 +525,220 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4">
+      <c r="A2" s="6">
+        <v>42345.230092592596</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6">
+        <v>42343.256689814814</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
         <v>42340</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
         <v>42338</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
         <v>42332</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
         <v>42324</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
         <v>42313</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
         <v>42188.190972222219</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
         <v>42188.216666666667</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
         <v>42188.288888888892</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>42184</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>42184</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>42184</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>42184</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.5">
+      <c r="A14" s="3">
+        <v>42184</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+    <row r="15" spans="1:4" ht="13.5">
+      <c r="A15" s="1">
         <v>42156</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <v>42110</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <v>41977</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
+        <v>42110</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4">
+        <v>41977</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+    <row r="18" spans="1:3">
+      <c r="A18" s="4">
         <v>41898</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+    <row r="19" spans="1:3">
+      <c r="A19" s="4">
         <v>41863</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+    <row r="20" spans="1:3">
+      <c r="A20" s="4">
         <v>41852</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+    <row r="21" spans="1:3">
+      <c r="A21" s="4">
         <v>41852</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -718,14 +750,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
